--- a/outputs/mod_7.xlsx
+++ b/outputs/mod_7.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.841055917626331</v>
+        <v>0.2193676304025659</v>
       </c>
       <c r="E2" t="n">
-        <v>32.89927214854842</v>
+        <v>1.411830022393886</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2991268582840225</v>
+        <v>0.1553782161613253</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.05723176838921</v>
+        <v>0.177804539508912</v>
       </c>
       <c r="E3" t="n">
-        <v>14.88402860978644</v>
+        <v>0.6075380185990293</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6757062910895272</v>
+        <v>0.2926640540437713</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -532,15 +532,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.802427425530448</v>
+        <v>16.40189742432407</v>
       </c>
       <c r="E4" t="n">
-        <v>43.45189084599886</v>
+        <v>3.458418272607688</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04148098944459212</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>4.742600845662558</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,15 +561,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.16777670494609</v>
+        <v>28.31828950467141</v>
       </c>
       <c r="E5" t="n">
-        <v>22.16273571446112</v>
+        <v>4.312121364297727</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5941404019159129</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>6.56713647698627</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -582,15 +590,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.101405224223444</v>
+        <v>15.64421906531543</v>
       </c>
       <c r="E6" t="n">
-        <v>20.47530703045026</v>
+        <v>2.718004487958973</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1026311947898167</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>5.755773816644106</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -607,15 +619,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-8.041316079542845</v>
+        <v>15.36682168193096</v>
       </c>
       <c r="E7" t="n">
-        <v>12.11721289167099</v>
+        <v>2.522417442627249</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6636275314656069</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>6.092100943420964</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -632,13 +648,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-2.098424986636775</v>
+        <v>4.871221805410111</v>
       </c>
       <c r="E8" t="n">
-        <v>16.2569966744014</v>
+        <v>326.0889899853762</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1290782688010878</v>
+        <v>0.01493832038189503</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -657,13 +673,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-19.89982189087961</v>
+        <v>-0.2429729102859494</v>
       </c>
       <c r="E9" t="n">
-        <v>38.0000304797862</v>
+        <v>0.4351257057227338</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5236791034013816</v>
+        <v>-0.5583970496120816</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -682,15 +698,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-3.598774531409597</v>
+        <v>-2.406746270971496</v>
       </c>
       <c r="E10" t="n">
-        <v>23.56644630752285</v>
+        <v>0.3138191611213063</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1527075607602662</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>-7.669213894944969</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -707,13 +727,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0304334611228874</v>
+        <v>-0.839324685179287</v>
       </c>
       <c r="E11" t="n">
-        <v>5.823033534183876</v>
+        <v>0.7693255191861178</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0052263929005782</v>
+        <v>-1.090987708385421</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -732,15 +752,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-30.38819374311426</v>
+        <v>-26.14325371036335</v>
       </c>
       <c r="E12" t="n">
-        <v>544.6652082620503</v>
+        <v>11.12150801452342</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0557924267644682</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>-2.350693240181391</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -753,17 +777,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>priceperoz_inc</t>
+          <t>mint_purchase_InStore</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.83302099068874</v>
+        <v>-0.744351441606963</v>
       </c>
       <c r="E13" t="n">
-        <v>7571.08363273887</v>
+        <v>1.969950550155513</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00169500452157155</v>
+        <v>-0.3778528560263615</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -778,17 +802,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>fluoride_purchase_InStore</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1.180249588974525</v>
+        <v>0.1391979066856296</v>
       </c>
       <c r="E14" t="n">
-        <v>4.358084227373689</v>
+        <v>1.780952873841952</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2708184439302997</v>
+        <v>0.07815923078601486</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -803,17 +827,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>kids_purchase_InStore</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.178862687519822</v>
+        <v>9.462931075659744</v>
       </c>
       <c r="E15" t="n">
-        <v>15.04455230265524</v>
+        <v>348.7561304864192</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4107043242775195</v>
+        <v>0.0271333755838544</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -828,19 +852,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>sizeNorm_purchase_InStore</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.464165583369383</v>
+        <v>-0.3842234260564101</v>
       </c>
       <c r="E16" t="n">
-        <v>20.14339020654885</v>
+        <v>0.2129606459680423</v>
       </c>
       <c r="F16" t="n">
-        <v>0.171975300475644</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>-1.804199195160537</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -848,22 +876,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-6.47207154785414</v>
+        <v>0.01058407050147751</v>
       </c>
       <c r="E17" t="n">
-        <v>8.844278771215297</v>
+        <v>26.89177624498728</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7317805911905702</v>
+        <v>0.0003935801936270541</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -873,22 +901,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.384119536709687</v>
+        <v>-0.002007104191373956</v>
       </c>
       <c r="E18" t="n">
-        <v>3.524861589086205</v>
+        <v>15.33337546850655</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9600716088222335</v>
+        <v>-0.0001308977397375012</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -898,374 +926,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-5.366611512249783</v>
+        <v>0.01054447248376479</v>
       </c>
       <c r="E19" t="n">
-        <v>22.54118612533916</v>
+        <v>13.59494976839037</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2380802626094742</v>
+        <v>0.0007756168771054792</v>
       </c>
       <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>fluoride_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>-15.40897611930549</v>
-      </c>
-      <c r="E20" t="n">
-        <v>61.6421755925827</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.2499745664583523</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sizeNorm_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>-4.844520303528264</v>
-      </c>
-      <c r="E21" t="n">
-        <v>64.87449330837059</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.07467526999402688</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>familypack_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>11.7704109599503</v>
-      </c>
-      <c r="E22" t="n">
-        <v>29.4182542373339</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.4001056916903246</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>brand_Aquafresh</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>3.480503748948507</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6.643397183745836</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.5239042093500192</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>brand_Colgate</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>6.053234675304131</v>
-      </c>
-      <c r="E24" t="n">
-        <v>49.53502281997199</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1222011080383218</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>brand_Sensodyne</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>7.962727268082411</v>
-      </c>
-      <c r="E25" t="n">
-        <v>28.28484748870655</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.281519186952015</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>mint</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>-1.207008949877254</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.64231850693097</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.06144941339034646</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>6.487731750256281</v>
-      </c>
-      <c r="E27" t="n">
-        <v>25.94871070756573</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.2500213526356316</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>fluoride</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>-0.7328400054721617</v>
-      </c>
-      <c r="E28" t="n">
-        <v>35.38342533993173</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-0.02071139236610651</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>kids</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.6538007660207468</v>
-      </c>
-      <c r="E29" t="n">
-        <v>43.30479521444295</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-0.01509765287615752</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sizeNorm</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>-0.8564910637311529</v>
-      </c>
-      <c r="E30" t="n">
-        <v>36.6732377034158</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-0.02335466180155067</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>discount</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>5.172914349203452</v>
-      </c>
-      <c r="E31" t="n">
-        <v>77.93819990225309</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.06637200186418356</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>familypack</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>3.886909334641896</v>
-      </c>
-      <c r="E32" t="n">
-        <v>24.07842658800246</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.1614270484176331</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>priceperoz</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>-1.504760441054479</v>
-      </c>
-      <c r="E33" t="n">
-        <v>123.0547995525431</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.01222837667873298</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1278,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,13 +1011,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.413037279984166</v>
+        <v>0.06370781037184725</v>
       </c>
       <c r="E2" t="n">
-        <v>74.3956605750672</v>
+        <v>6.564231709747922</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01899354436887315</v>
+        <v>0.009705295789184405</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1358,13 +1036,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.984586471348508</v>
+        <v>0.1866047484613917</v>
       </c>
       <c r="E3" t="n">
-        <v>36.72072303111155</v>
+        <v>3.884511840355912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05404540835612283</v>
+        <v>0.04803814639532527</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1383,13 +1061,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1.443944417955246</v>
+        <v>11.98903108135249</v>
       </c>
       <c r="E4" t="n">
-        <v>241.079497986763</v>
+        <v>952064.1828329366</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.005989494876227628</v>
+        <v>1.259267105887572e-05</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -1408,13 +1086,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.887855774903819</v>
+        <v>34.66659516208385</v>
       </c>
       <c r="E5" t="n">
-        <v>534.7911723186722</v>
+        <v>1919504.238496301</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01100963531124884</v>
+        <v>1.80601816171247e-05</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1433,13 +1111,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-3.778337820897533</v>
+        <v>11.99684930065352</v>
       </c>
       <c r="E6" t="n">
-        <v>72.23350027718797</v>
+        <v>952060.5142468156</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0523072785674041</v>
+        <v>1.260093147560514e-05</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1458,13 +1136,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4033516193109159</v>
+        <v>12.04747641516686</v>
       </c>
       <c r="E7" t="n">
-        <v>61.19583499984098</v>
+        <v>952061.6181859783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006591161298999581</v>
+        <v>1.265409316481181e-05</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1483,13 +1161,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.782693154274759</v>
+        <v>5.52632432738683</v>
       </c>
       <c r="E8" t="n">
-        <v>589.2445867124173</v>
+        <v>442597.2309675062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003025387410380756</v>
+        <v>1.248612494774635e-05</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1508,13 +1186,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-4.574570209885045</v>
+        <v>0.05121627179063927</v>
       </c>
       <c r="E9" t="n">
-        <v>52.34391910580173</v>
+        <v>4.152251846395603</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08739449181553556</v>
+        <v>0.01233457740168097</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1533,13 +1211,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.462146937524373</v>
+        <v>1.282516559532192</v>
       </c>
       <c r="E10" t="n">
-        <v>57.76456495175425</v>
+        <v>7.629643152958395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02531217778140591</v>
+        <v>0.1680965326713734</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1558,13 +1236,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.32470050938351</v>
+        <v>0.06999222665630557</v>
       </c>
       <c r="E11" t="n">
-        <v>65.5094010834958</v>
+        <v>8.166045638215389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02022153290174484</v>
+        <v>0.008571128518894943</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1583,13 +1261,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-7.426497284985865</v>
+        <v>0.8997213478436854</v>
       </c>
       <c r="E12" t="n">
-        <v>8362.688007212555</v>
+        <v>103.4290529248637</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0008880514588826877</v>
+        <v>0.008698922811342864</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1604,17 +1282,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>priceperoz_inc</t>
+          <t>mint_purchase_InStore</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.7087906727035379</v>
+        <v>-8.430501195292772</v>
       </c>
       <c r="E13" t="n">
-        <v>116820.9824630831</v>
+        <v>29897.4011738872</v>
       </c>
       <c r="F13" t="n">
-        <v>-6.067323333182244e-06</v>
+        <v>-0.0002819810707378836</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1629,17 +1307,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>fluoride_purchase_InStore</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-4.526510706941302</v>
+        <v>0.5907802539365584</v>
       </c>
       <c r="E14" t="n">
-        <v>505.5961112030029</v>
+        <v>16.65964328439876</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.008952819467244386</v>
+        <v>0.03546175892552308</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1654,17 +1332,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>kids_purchase_InStore</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2206427246422431</v>
+        <v>6.71262621114004</v>
       </c>
       <c r="E15" t="n">
-        <v>31.68555769546411</v>
+        <v>509428.0339228234</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006963510845000177</v>
+        <v>1.317678997649544e-05</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1679,17 +1357,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>sizeNorm_purchase_InStore</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-5.034361991494089</v>
+        <v>-0.9499262088186217</v>
       </c>
       <c r="E16" t="n">
-        <v>495.2086993757762</v>
+        <v>5.791058704700707</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01016614206866728</v>
+        <v>-0.1640332549292843</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1699,22 +1377,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01363924887578955</v>
+        <v>0.00259338509554516</v>
       </c>
       <c r="E17" t="n">
-        <v>48.55248732969626</v>
+        <v>290.5571088082298</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00028091761361621</v>
+        <v>8.925560645142626e-06</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1724,22 +1402,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2670487362198715</v>
+        <v>0.004812614541618915</v>
       </c>
       <c r="E18" t="n">
-        <v>280.0191904033319</v>
+        <v>100.8051867823528</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009536801239772957</v>
+        <v>4.774173527409625e-05</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1749,374 +1427,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.2718286082047</v>
+        <v>0.002062406400189502</v>
       </c>
       <c r="E19" t="n">
-        <v>665.5629898582881</v>
+        <v>230.7754494902058</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001910906446999852</v>
+        <v>8.936853572359877e-06</v>
       </c>
       <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>fluoride_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>-3.596345157582576</v>
-      </c>
-      <c r="E20" t="n">
-        <v>264.7049092362884</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01358624276353071</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sizeNorm_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>-2.018297750775302</v>
-      </c>
-      <c r="E21" t="n">
-        <v>309.594245164995</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.006519170760747415</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>familypack_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.6671573958180113</v>
-      </c>
-      <c r="E22" t="n">
-        <v>184.1953663487132</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.003622009657696647</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>brand_Aquafresh</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.04570622049967323</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1535.362892614872</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-2.976900166046811e-05</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>brand_Colgate</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.3759792800913679</v>
-      </c>
-      <c r="E24" t="n">
-        <v>115.9191993982477</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.003243459944885122</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>brand_Sensodyne</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1.70647897587999</v>
-      </c>
-      <c r="E25" t="n">
-        <v>398.5107092252766</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.004282140821754739</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>mint</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.5450608362380855</v>
-      </c>
-      <c r="E26" t="n">
-        <v>149.0653325698274</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.003656523128761411</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>4.928371222780252</v>
-      </c>
-      <c r="E27" t="n">
-        <v>133.6005631381494</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.03688885066812241</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>fluoride</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>-0.332927017411632</v>
-      </c>
-      <c r="E28" t="n">
-        <v>658.616140739275</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-0.0005054947742974114</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>kids</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5239531997568995</v>
-      </c>
-      <c r="E29" t="n">
-        <v>656.8372155321571</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0007976910981397461</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sizeNorm</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0.2063817832027929</v>
-      </c>
-      <c r="E30" t="n">
-        <v>614.4493200081341</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0003358808879470496</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>discount</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>-0.273487152889806</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1380.164524886987</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-0.0001981554720167873</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>familypack</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>-0.2661778255747613</v>
-      </c>
-      <c r="E32" t="n">
-        <v>219.8391593398473</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.001210784404262024</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>priceperoz</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>-2.952552195843051</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1431.067241044614</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.002063182016302617</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2202,34 +1530,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.518050501500098</v>
+        <v>-17.53748101131899</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4039318595290244</v>
+        <v>4.768863252062557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01865721867039035</v>
+        <v>0.9530812034166911</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2515152568952106</v>
+        <v>3.950684432189052</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003903485962870923</v>
+        <v>2.107243191731231e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2047766090617457</v>
+        <v>0.4237085952408801</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007828779638850397</v>
+        <v>2.512392444046412</v>
       </c>
       <c r="J2" t="n">
-        <v>0.38511578909066</v>
+        <v>4.927850562339692</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0811163292060806</v>
+        <v>3.235561841035081e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.159822952313123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2240,34 +1568,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8184822911963752</v>
+        <v>4.520101520124726</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.52344195331051</v>
+        <v>-17.08891886076436</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06054135086659188</v>
+        <v>0.9701372695993107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3370843364617482</v>
+        <v>3.844713219684679</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005324164294404721</v>
+        <v>2.623055972265094e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2765744261427547</v>
+        <v>0.4099299706425665</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01224708188083647</v>
+        <v>2.481758947319799</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6581999127654293</v>
+        <v>4.863813477438715</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1316007030694677</v>
+        <v>2.697574607840807e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2227079789133543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2278,34 +1606,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1980791787326688</v>
+        <v>4.962249831151527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6569626918591808</v>
+        <v>5.329041964878119</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.720178794518862</v>
+        <v>-24.30261620085692</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8770485130079231</v>
+        <v>4.172812066980412</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09630891622785001</v>
+        <v>5.557416082984858e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5653001343785315</v>
+        <v>0.4554729867138932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.11840119414274</v>
+        <v>3.769969938771541</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6554264603127233</v>
+        <v>5.611891814251512</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8295065395280975</v>
+        <v>6.53482535724831e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7465464807261056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2316,34 +1644,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7840456737782499</v>
+        <v>4.733258778960145</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5109575614488727</v>
+        <v>4.859796393006237</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1238520405446061</v>
+        <v>0.9602143498476272</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.3010419405125</v>
+        <v>-18.57010290435933</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009689521580431024</v>
+        <v>2.647123164158772e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3825756201107363</v>
+        <v>0.4295026196731344</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02690511727089502</v>
+        <v>2.540757873289577</v>
       </c>
       <c r="J5" t="n">
-        <v>0.600300586780505</v>
+        <v>5.045647388204308</v>
       </c>
       <c r="K5" t="n">
-        <v>0.270013636950617</v>
+        <v>3.252381752405039e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5918399545344515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2354,34 +1682,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5971297590726929</v>
+        <v>5.032504907917343</v>
       </c>
       <c r="D6" t="n">
-        <v>0.539601837230176</v>
+        <v>5.400930263993581</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5775074081451568</v>
+        <v>2.325742261988304</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6276611876563333</v>
+        <v>4.274169847781336</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.949134556222921</v>
+        <v>-26.99614096041794</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5169229582385274</v>
+        <v>0.4583517378007335</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3364802751956336</v>
+        <v>3.868694936427305</v>
       </c>
       <c r="J6" t="n">
-        <v>1.136787217833665</v>
+        <v>5.634558376135034</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5204120131727609</v>
+        <v>8.107051008422223e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4218335556315388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2392,34 +1720,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8430156471728315</v>
+        <v>5.774165459289456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5419533480234685</v>
+        <v>5.893832634145102</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09955960393052431</v>
+        <v>1.192157200385412</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4945774606130517</v>
+        <v>4.885383704182856</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007811349076851637</v>
+        <v>1.684311996436506e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.277170462254289</v>
+        <v>-27.06289885486011</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05338916327258346</v>
+        <v>3.134823469145223</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6910662752522664</v>
+        <v>6.181169235850217</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2116413829552132</v>
+        <v>4.353092634925364e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3324258377135111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2430,34 +1758,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.735643245387533</v>
+        <v>5.500672497880858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6258519275688426</v>
+        <v>5.732646414540719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4803829202015457</v>
+        <v>1.58531973767703</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8299537378655466</v>
+        <v>4.643059810299402</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2696215931938132</v>
+        <v>2.72877348046737e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>1.181148942402872</v>
+        <v>0.5036398530507195</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.95817110114147</v>
+        <v>-23.97137799381086</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6132698581277278</v>
+        <v>6.003090039461188</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8244822104917203</v>
+        <v>3.051577914276602e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9916232354604947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2468,34 +1796,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7907655580144103</v>
+        <v>4.478510981866521</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6574156791347043</v>
+        <v>4.663582432587585</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05930252404530452</v>
+        <v>0.9795743725443379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3950607092372159</v>
+        <v>3.827407158207934</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01381227104951708</v>
+        <v>3.036660622729413e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3514629987852781</v>
+        <v>0.4122150903881918</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01076371400545525</v>
+        <v>2.491853031916536</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.6822344677434</v>
+        <v>-16.8515927606275</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1489237976123894</v>
+        <v>3.17956229909315e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.253409391111287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2506,34 +1834,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8903809168436885</v>
+        <v>5.06431472996031</v>
       </c>
       <c r="D10" t="n">
-        <v>0.698439637333531</v>
+        <v>5.536576666206503</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4113270583130392</v>
+        <v>2.321102003183928</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9455622321041802</v>
+        <v>4.298527902140544</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02856366737978911</v>
+        <v>4.219367205792039e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5767765984441465</v>
+        <v>0.4566186896566817</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09688912539868613</v>
+        <v>3.852219759314295</v>
       </c>
       <c r="J10" t="n">
-        <v>0.79563862253218</v>
+        <v>5.718114646839575</v>
       </c>
       <c r="K10" t="n">
-        <v>-5.500984535139356</v>
+        <v>-27.24845092288588</v>
       </c>
       <c r="L10" t="n">
-        <v>1.050078488170349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2544,34 +1872,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7911577245391371</v>
+        <v>4.965442413176047</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5388518210864132</v>
+        <v>5.217563835755904</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1681292753830149</v>
+        <v>1.419329781867442</v>
       </c>
       <c r="F11" t="n">
-        <v>0.944005620711827</v>
+        <v>4.212059797651442</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009048845587076096</v>
+        <v>2.758290632204482e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4115868100240874</v>
+        <v>0.456640438327847</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05563455390049795</v>
+        <v>3.059658418100667</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6154065303988359</v>
+        <v>5.354117070455288</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4792762940496171</v>
+        <v>4.234501894308053e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>-4.013768400919282</v>
+        <v>-24.68572671875928</v>
       </c>
     </row>
   </sheetData>
